--- a/Assets/Resources/Document/Excel/Item.xlsx
+++ b/Assets/Resources/Document/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,94 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobIndex</t>
+  </si>
+  <si>
+    <t>itemType</t>
   </si>
   <si>
     <t>handed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHandCount</t>
+  </si>
+  <si>
+    <t>dropPer</t>
   </si>
   <si>
     <t>salePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
   <si>
     <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Sword</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Shield</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Bow</t>
+  </si>
+  <si>
+    <t>HpPotion</t>
   </si>
   <si>
     <t>Consumption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/HpPotion</t>
+  </si>
+  <si>
+    <t>ManaPotion</t>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/ManaPotion</t>
+  </si>
+  <si>
+    <t>Jewel</t>
   </si>
   <si>
     <t>Etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManaPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHandCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jewel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Jewel</t>
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Key</t>
   </si>
   <si>
     <t>Mushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Textures/UI/Item/Mushroom</t>
   </si>
   <si>
     <t>int</t>
@@ -111,70 +116,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/HpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/ManaPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Jewel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Textures/UI/Item/Mushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,11 +163,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -528,347 +466,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>1001</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
         <v>2500</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>1001</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4">
+        <v>1500</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>1500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>1002</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1002</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
         <v>3000</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>1000</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
       </c>
       <c r="G6">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>1000</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
       </c>
       <c r="G7">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>1000</v>
       </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
         <v>300</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>99</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1000</v>
       </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
       </c>
       <c r="G10">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
-        <v>38</v>
+      <c r="I10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Resources/Document/Excel/Item.xlsx
+++ b/Assets/Resources/Document/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,8 @@
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">

--- a/Assets/Resources/Document/Excel/Item.xlsx
+++ b/Assets/Resources/Document/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>index</t>
   </si>
@@ -120,6 +120,46 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느 이름 모를 전사가 착용했던 낡은 한손검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 구석에 놓여있던 낡은 한손 방패다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철산 사냥꾼이 사용했다는 활이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 100 회복가능한 물약이다. \n 오남용은 신체에 부담이 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나를 50 회복가능한 물약이다 \n 건강에 좋은 약초로 만든 허브차이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싸게 팔수있는 조금 금이간 보석이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가에 사용가능한 낡은 키다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길가에 많이 자라있는 버섯이다. \n 독이 들어있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,10 +518,11 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,10 +548,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -536,10 +580,13 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -565,10 +612,13 @@
         <v>2500</v>
       </c>
       <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -594,10 +644,13 @@
         <v>1500</v>
       </c>
       <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -623,10 +676,13 @@
         <v>3000</v>
       </c>
       <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -652,10 +708,13 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -681,10 +740,13 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -710,10 +772,13 @@
         <v>300</v>
       </c>
       <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -739,10 +804,13 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -768,6 +836,9 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Assets/Resources/Document/Excel/Item.xlsx
+++ b/Assets/Resources/Document/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -33,9 +33,6 @@
     <t>handed</t>
   </si>
   <si>
-    <t>maxHandCount</t>
-  </si>
-  <si>
     <t>dropPer</t>
   </si>
   <si>
@@ -160,6 +157,10 @@
   </si>
   <si>
     <t>길가에 많이 자라있는 버섯이다. \n 독이 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHandCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,14 +510,14 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="32.375" bestFit="1" customWidth="1"/>
@@ -539,51 +540,51 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,16 +592,16 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -612,10 +613,10 @@
         <v>2500</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -623,16 +624,16 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -644,10 +645,10 @@
         <v>1500</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,16 +656,16 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1002</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -676,10 +677,10 @@
         <v>3000</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -687,19 +688,19 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -708,10 +709,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -719,19 +720,19 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1000</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -740,10 +741,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -751,19 +752,19 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -772,10 +773,10 @@
         <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -783,19 +784,19 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -804,10 +805,10 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -815,19 +816,19 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>60</v>
@@ -836,10 +837,10 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Document/Excel/Item.xlsx
+++ b/Assets/Resources/Document/Excel/Item.xlsx
@@ -140,14 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력을 100 회복가능한 물약이다. \n 오남용은 신체에 부담이 간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나를 50 회복가능한 물약이다 \n 건강에 좋은 약초로 만든 허브차이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비싸게 팔수있는 조금 금이간 보석이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,11 +148,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길가에 많이 자라있는 버섯이다. \n 독이 들어있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currentHandCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길가에 많이 자라있는 버섯이다. 독이 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나를 50 회복가능한 물약이다. 건강에 좋은 약초로 만든 허브차이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 100 회복가능한 물약이다. 오남용은 신체에 부담이 간다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +510,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -741,7 +741,7 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -773,7 +773,7 @@
         <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -805,7 +805,7 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -837,7 +837,7 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
